--- a/Activity Logs 02-11-22.xlsx
+++ b/Activity Logs 02-11-22.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
   <si>
     <t>LOG TYPE</t>
   </si>
@@ -384,6 +384,132 @@
   </si>
   <si>
     <t>2022-02-11 09:02:18</t>
+  </si>
+  <si>
+    <t>2022-02-17</t>
+  </si>
+  <si>
+    <t>2022-02-11 09:36:34</t>
+  </si>
+  <si>
+    <t>2022-02-11 09:36:47</t>
+  </si>
+  <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:10:03</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:10:51</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:12:59</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:13:05</t>
+  </si>
+  <si>
+    <t>3322-11-28</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:15:13</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:32:46</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:32:51</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:32:54</t>
+  </si>
+  <si>
+    <t>2022-02-16</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:33:00</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:33:07</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:33:53</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:34:43</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:35:03</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:37:04</t>
+  </si>
+  <si>
+    <t>MIS-01-008</t>
+  </si>
+  <si>
+    <t>SAMPLE-008</t>
+  </si>
+  <si>
+    <t>HDMI-CBL-001</t>
+  </si>
+  <si>
+    <t>HDMI Cable</t>
+  </si>
+  <si>
+    <t>HDMI CABLE</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:38:51</t>
+  </si>
+  <si>
+    <t>MIS-01-011</t>
+  </si>
+  <si>
+    <t>SAMPLE-011</t>
+  </si>
+  <si>
+    <t>HP-WRKSTN-001</t>
+  </si>
+  <si>
+    <t>Workstation</t>
+  </si>
+  <si>
+    <t>JSKA09S76SC7A</t>
+  </si>
+  <si>
+    <t>WORKSTATION</t>
+  </si>
+  <si>
+    <t>2022-02-21</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:39:59</t>
+  </si>
+  <si>
+    <t>MIS-01-007</t>
+  </si>
+  <si>
+    <t>SAMPLE-007</t>
+  </si>
+  <si>
+    <t>MOUSE-001</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>11111111565TR</t>
+  </si>
+  <si>
+    <t>MOUSE</t>
+  </si>
+  <si>
+    <t>2022-02-11 10:40:12</t>
+  </si>
+  <si>
+    <t>2022-02-11 11:50:04</t>
   </si>
 </sst>
 </file>
@@ -750,7 +876,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -3201,6 +3327,1450 @@
         <v>58</v>
       </c>
     </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L48" s="2">
+        <v>23092839028</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L49" s="2">
+        <v>23092839028</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L50" s="2">
+        <v>23092839028</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L51" s="2">
+        <v>23092839028</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T58" s="2"/>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L62" s="2">
+        <v>23092839028</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L63" s="2">
+        <v>23092839028</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K67" s="2">
+        <v>40385256546</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L70" s="2">
+        <v>23092839028</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T70" s="2"/>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T72" s="2"/>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K73" s="2">
+        <v>40385256546</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T74" s="2"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/Activity Logs 02-11-22.xlsx
+++ b/Activity Logs 02-11-22.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>LOG TYPE</t>
   </si>
@@ -510,6 +510,12 @@
   </si>
   <si>
     <t>2022-02-11 11:50:04</t>
+  </si>
+  <si>
+    <t>2022-02-11 14:32:08</t>
+  </si>
+  <si>
+    <t>2022-02-11 14:32:12</t>
   </si>
 </sst>
 </file>
@@ -876,7 +882,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -4771,6 +4777,114 @@
       </c>
       <c r="T74" s="2"/>
     </row>
+    <row r="75" spans="1:20">
+      <c r="A75" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
